--- a/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,18%</t>
+          <t>-31,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>137,76%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-33,26%</t>
+          <t>-49,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>146,64%</t>
+          <t>-5,84%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 6,82</t>
+          <t>-17,55; 7,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 20,15</t>
+          <t>-6,45; 18,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 6,21</t>
+          <t>-18,05; 3,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,03</t>
+          <t>-13,05; 10,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,81; 225,29</t>
+          <t>-80,97; 84,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 1271,87</t>
+          <t>-36,15; 214,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 225,13</t>
+          <t>-89,08; 75,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,45; —</t>
+          <t>-74,59; 215,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-31,77%</t>
+          <t>-19,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>137,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-49,86%</t>
+          <t>-33,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>146,64%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 7,24</t>
+          <t>-9,51; 6,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 18,53</t>
+          <t>-2,73; 20,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 3,47</t>
+          <t>-14,08; 6,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 10,7</t>
+          <t>-1,29; 8,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,97; 84,8</t>
+          <t>-87,81; 225,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 214,8</t>
+          <t>-52,87; 1271,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-89,08; 75,05</t>
+          <t>-100,0; 225,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,59; 215,02</t>
+          <t>-76,45; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>-49,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>193,49%</t>
+          <t>1038,57%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 11,73</t>
+          <t>-19,01; 4,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 13,52</t>
+          <t>-9,18; 17,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 15,53</t>
+          <t>-16,81; 17,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 26,92</t>
+          <t>5,05; 39,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 293,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 134,4</t>
+          <t>-51,2; 282,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 151,47</t>
+          <t>-60,04; 184,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 1149,96</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,77%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-49,86%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 7,24</t>
+          <t>-10,46; 12,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 18,53</t>
+          <t>-8,79; 15,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 3,47</t>
+          <t>-10,0; 13,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 10,7</t>
+          <t>-10,7; 13,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,97; 84,8</t>
+          <t>-59,15; 154,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 214,8</t>
+          <t>-44,29; 132,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-89,08; 75,05</t>
+          <t>-56,7; 169,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,59; 215,02</t>
+          <t>-66,38; 222,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,18%</t>
+          <t>-50,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>137,76%</t>
+          <t>44,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-33,26%</t>
+          <t>-64,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>146,64%</t>
+          <t>26,37%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 6,82</t>
+          <t>-20,42; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 20,15</t>
+          <t>-10,73; 20,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 6,21</t>
+          <t>-22,02; 0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,03</t>
+          <t>-9,08; 11,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-87,81; 225,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 1271,87</t>
+          <t>-67,14; 589,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 225,13</t>
+          <t>-100,0; 49,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,45; —</t>
+          <t>-86,09; 719,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,74%</t>
+          <t>101,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>207,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,28%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>132,6%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 4,1</t>
+          <t>-3,86; 12,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 12,27</t>
+          <t>-2,19; 25,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 5,05</t>
+          <t>-10,17; 14,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 8,03</t>
+          <t>-2,05; 6,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 55,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 122,81</t>
+          <t>-53,08; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 57,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 230,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-12,74%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37,84%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-10,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 4,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 11,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 5,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 8,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-54,49; 62,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-15,03; 114,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-48,82; 62,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,27; 265,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 4,08</t>
+          <t>-18,19; 5,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 17,92</t>
+          <t>-8,08; 19,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 17,31</t>
+          <t>-15,26; 17,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 39,19</t>
+          <t>4,77; 41,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 185,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,2; 282,52</t>
+          <t>-45,75; 334,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,04; 184,47</t>
+          <t>-57,56; 184,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 12,57</t>
+          <t>-10,25; 11,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 15,93</t>
+          <t>-8,85; 15,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 13,2</t>
+          <t>-9,56; 13,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 13,26</t>
+          <t>-10,31; 13,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 154,62</t>
+          <t>-58,44; 129,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 132,7</t>
+          <t>-42,57; 135,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,7; 169,0</t>
+          <t>-50,66; 229,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 222,56</t>
+          <t>-63,64; 211,05</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 5,87</t>
+          <t>-20,06; 5,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 20,18</t>
+          <t>-11,15; 20,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 0,73</t>
+          <t>-20,75; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 11,73</t>
+          <t>-8,73; 12,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 589,7</t>
+          <t>-65,0; 499,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,6</t>
+          <t>-100,0; 88,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-86,09; 719,61</t>
+          <t>-82,42; 753,71</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 12,74</t>
+          <t>-3,37; 13,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 25,13</t>
+          <t>-2,02; 25,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 14,41</t>
+          <t>-10,22; 15,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 6,41</t>
+          <t>-1,13; 6,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,08; —</t>
+          <t>-58,38; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,5</t>
+          <t>-6,81; 4,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 11,38</t>
+          <t>-1,82; 11,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,45</t>
+          <t>-7,94; 5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 8,68</t>
+          <t>-1,26; 8,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 62,44</t>
+          <t>-53,33; 62,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 114,49</t>
+          <t>-9,11; 141,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 62,85</t>
+          <t>-49,13; 57,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 265,9</t>
+          <t>-21,2; 257,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,18</t>
+          <t>18,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1038,57%</t>
+          <t>994,55%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 5,11</t>
+          <t>-19,19; 4,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 19,08</t>
+          <t>-8,17; 19,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 17,4</t>
+          <t>-16,14; 17,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 41,37</t>
+          <t>5,13; 38,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 185,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 334,76</t>
+          <t>-48,5; 331,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,56; 184,41</t>
+          <t>-59,95; 183,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>32,75%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 11,52</t>
+          <t>-11,1; 11,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 15,14</t>
+          <t>-9,39; 14,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 13,89</t>
+          <t>-9,1; 14,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 13,28</t>
+          <t>-8,48; 22,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 129,21</t>
+          <t>-57,37; 145,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 135,26</t>
+          <t>-43,66; 137,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 229,08</t>
+          <t>-55,01; 217,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,64; 211,05</t>
+          <t>-58,7; 364,28</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>30,42%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 5,98</t>
+          <t>-20,26; 6,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 20,54</t>
+          <t>-10,98; 20,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 1,3</t>
+          <t>-20,91; 2,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 12,44</t>
+          <t>-7,21; 11,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 499,72</t>
+          <t>-63,59; 611,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 88,02</t>
+          <t>-94,19; 116,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,42; 753,71</t>
+          <t>-77,79; —</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>132,6%</t>
+          <t>69,7%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 13,25</t>
+          <t>-3,21; 14,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 25,52</t>
+          <t>-1,21; 26,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 15,01</t>
+          <t>-10,14; 15,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,79</t>
+          <t>-2,47; 4,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,38; —</t>
+          <t>-50,95; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>57,09%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,52</t>
+          <t>-7,03; 4,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 11,95</t>
+          <t>-1,44; 12,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 5,35</t>
+          <t>-7,9; 5,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 8,87</t>
+          <t>-2,21; 8,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 62,58</t>
+          <t>-54,63; 55,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 141,43</t>
+          <t>-10,51; 122,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-49,13; 57,52</t>
+          <t>-49,64; 57,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 257,72</t>
+          <t>-34,49; 250,83</t>
         </is>
       </c>
     </row>
